--- a/reports/Forward Traceability Matrix.xlsx
+++ b/reports/Forward Traceability Matrix.xlsx
@@ -421,7 +421,7 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B2" t="str">
-        <v>TMTA20AT-313 - Verify that the signup form includes all necessary fields for user account creation</v>
+        <v>TMTA20AT-325 - Verify that the login form includes all necessary fields for user login</v>
       </c>
       <c r="C2" t="str">
         <v>Register for an account, log in and manage account features  - PASS</v>
@@ -432,30 +432,30 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 4 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B3" t="str">
-        <v>TMTA20AT-314 - Verify that the signup forms have clear labels for each field and easily accessible instructions if needed.</v>
+        <v>TMTA20AT-326 - Verify that the login form has clear labels for each field and offers easily accessible instructions, if needed</v>
       </c>
       <c r="C3" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D3" t="str">
-        <v>TMTA20AT-388 - Backlog - Password field doesn't have additional info</v>
+        <v>None</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>TMTA20AT-327 - Verify that the login form offers the option for users to see or hide their entered password while typing</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D4" t="str">
-        <v>TMTA20AT-389 - Backlog - Mobile Number field doesn't have additional format info</v>
+        <v>TMTA20AT-395 - Backlog - The login form doesn't offer a password visibility toggle</v>
       </c>
     </row>
     <row r="5">
@@ -469,63 +469,63 @@
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>TMTA20AT-388 - Backlog - Password field doesn't have additional info - step level</v>
+        <v>TMTA20AT-395 - Backlog - The login form doesn't offer a password visibility toggle - step level</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>TMTA20AT-328 - Verify that the platform allows successful login for users with valid email addresses and passwords</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D6" t="str">
-        <v>TMTA20AT-389 - Backlog - Mobile Number field doesn't have additional format info - step level</v>
+        <v>None</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B7" t="str">
-        <v>TMTA20AT-315 - Verify that the signup forms offer the option for users to see or hide their entered password while typing.</v>
+        <v>TMTA20AT-329 - Verify that the platform handles failed login attempts with incorrect email addresses or passwords</v>
       </c>
       <c r="C7" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D7" t="str">
-        <v>TMTA20AT-390 - Backlog - Users cannot choose to view their password for confirmation purposes</v>
+        <v>None</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>TMTA20AT-330 - Verify that the platform establishes and maintains secure user sessions after successful login</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D8" t="str">
-        <v>TMTA20AT-390 - Backlog - Users cannot choose to view their password for confirmation purposes - step level</v>
+        <v>None</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B9" t="str">
-        <v>TMTA20AT-316 - Verify that the platform's email validation accepts email addresses in standard formats</v>
+        <v>TMTA20AT-331 - Verify that the platform utilizes unique and time-bound tokens for user identification during sessions.</v>
       </c>
       <c r="C9" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D9" t="str">
-        <v>None</v>
+        <v>TMTA20AT-396 - Backlog - The platform doesn't utilize unique and time-bound tokens for user identification during sessions</v>
       </c>
     </row>
     <row r="10">
@@ -533,13 +533,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B10" t="str">
-        <v>TMTA20AT-317 - Verify that the platform's email validation rejects email addresses with invalid formats.</v>
+        <v>TMTA20AT-332 - Verify that the platform implements session expiration and automatic logout after a period of inactivity</v>
       </c>
       <c r="C10" t="str">
         <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D10" t="str">
-        <v>TMTA20AT-391 - Backlog - The platform accepts email addresses with obvious formatting errors or invalid symbols.</v>
+        <v>TMTA20AT-397 - Backlog - The platform doesn't implement session expiration and automatic logout after a period of inactivity</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>TMTA20AT-391 - Backlog - The platform accepts email addresses with obvious formatting errors or invalid symbols. - step level</v>
+        <v>TMTA20AT-397 - Backlog - The platform doesn't implement session expiration and automatic logout after a period of inactivity - step level</v>
       </c>
     </row>
     <row r="12">
@@ -561,13 +561,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B12" t="str">
-        <v>TMTA20AT-318 - Verify that the platform enforces password complexity requirements to promote strong passwords.</v>
+        <v>TMTA20AT-333 - Verify that the platform enforces login attempt limits to restrict excessive login attempts</v>
       </c>
       <c r="C12" t="str">
         <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D12" t="str">
-        <v>TMTA20AT-392 - Backlog - The platform allows users to create passwords that are too weak (e.g., short, lacking character variation).</v>
+        <v>TMTA20AT-398 - Backlog - The platform doesn't limit the number of login attempts a user can make within a specific timeframe</v>
       </c>
     </row>
     <row r="13">
@@ -581,203 +581,203 @@
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>TMTA20AT-392 - Backlog - The platform allows users to create passwords that are too weak (e.g., short, lacking character variation). - step level</v>
+        <v>TMTA20AT-398 - Backlog - The platform doesn't limit the number of login attempts a user can make within a specific timeframe - step level</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B14" t="str">
-        <v>TMTA20AT-319 - Verify that the platform provides clear error messages guiding users to create stronger passwords</v>
+        <v>TMTA20AT-334 - Verify that the platform temporarily locks accounts after exceeding login attempt limits</v>
       </c>
       <c r="C14" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D14" t="str">
-        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity</v>
+        <v>TMTA20AT-398 - Backlog - The platform doesn't limit the number of login attempts a user can make within a specific timeframe</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>TMTA20AT-335 - Verify that the platform implements CAPTCHA challenges or similar measures to hinder automated login attempts</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D15" t="str">
-        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity - step level</v>
+        <v>TMTA20AT-399 - Backlog - The platform doesn't use additional checks (e.g. CAPTCHA) to differentiate between legitimate users and bots</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v/>
       </c>
       <c r="B16" t="str">
-        <v>TMTA20AT-321 - Verify that the platform utilizes secure transport protocols (HTTPS) during user registration to protect password transmission.</v>
+        <v/>
       </c>
       <c r="C16" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>None</v>
+        <v>TMTA20AT-399 - Backlog - The platform doesn't use additional checks (e.g. CAPTCHA) to differentiate between legitimate users and bots - step level</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B17" t="str">
-        <v>TMTA20AT-322 - Verify that the platform sends a confirmation email to the email address provided during registration</v>
+        <v>TMTA20AT-336 - Verify that the platform accurately displays username, email address, and address information associated with the logged-in user's account.</v>
       </c>
       <c r="C17" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D17" t="str">
-        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>TMTA20AT-337 - Verify that the platform updates user profile information accurately after edits are made by the user.</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D18" t="str">
-        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration. - step level</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B19" t="str">
-        <v>TMTA20AT-323 - Verify that the confirmation email content includes relevant information and an activation link</v>
+        <v>TMTA20AT-338 - Verify that the platform provides clear and accessible options for users to access and edit their profile information</v>
       </c>
       <c r="C19" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D19" t="str">
-        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B20" t="str">
-        <v>TMTA20AT-324 - Verify that confirmation emails are delivered successfully to various email providers and platforms</v>
+        <v/>
       </c>
       <c r="C20" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information - step level</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B21" t="str">
-        <v>TMTA20AT-325 - Verify that the login form includes all necessary fields for user login</v>
+        <v>TMTA20AT-339 - Verify that the platform allows users to edit specific profile details within their profile section</v>
       </c>
       <c r="C21" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D21" t="str">
-        <v>None</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B22" t="str">
-        <v>TMTA20AT-326 - Verify that the login form has clear labels for each field and offers easily accessible instructions, if needed</v>
+        <v>TMTA20AT-340 - Verify that the platform successfully saves and updates user profile information after edits are made</v>
       </c>
       <c r="C22" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D22" t="str">
-        <v>None</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B23" t="str">
-        <v>TMTA20AT-327 - Verify that the login form offers the option for users to see or hide their entered password while typing</v>
+        <v>TMTA20AT-341 - Verify that the platform provides confirmation messages and validates the information entered during profile edits</v>
       </c>
       <c r="C23" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D23" t="str">
-        <v>TMTA20AT-395 - Backlog - The login form doesn't offer a password visibility toggle</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B24" t="str">
-        <v/>
+        <v>TMTA20AT-342 -  Verify that the platform displays a list of the user's past orders with accurate details</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D24" t="str">
-        <v>TMTA20AT-395 - Backlog - The login form doesn't offer a password visibility toggle - step level</v>
+        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v/>
       </c>
       <c r="B25" t="str">
-        <v>TMTA20AT-328 - Verify that the platform allows successful login for users with valid email addresses and passwords</v>
+        <v/>
       </c>
       <c r="C25" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>None</v>
+        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders - step level</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B26" t="str">
-        <v>TMTA20AT-329 - Verify that the platform handles failed login attempts with incorrect email addresses or passwords</v>
+        <v>TMTA20AT-343 - Verify that the platform provides access to order tracking information and shipment updates for past orders.</v>
       </c>
       <c r="C26" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D26" t="str">
-        <v>None</v>
+        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B27" t="str">
-        <v>TMTA20AT-330 - Verify that the platform establishes and maintains secure user sessions after successful login</v>
+        <v>TMTA20AT-344 - Verify that the platform provides options for filtering and sorting the user's order history for better organization.</v>
       </c>
       <c r="C27" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D27" t="str">
-        <v>None</v>
+        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders</v>
       </c>
     </row>
     <row r="28">
@@ -785,69 +785,69 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B28" t="str">
-        <v>TMTA20AT-331 - Verify that the platform utilizes unique and time-bound tokens for user identification during sessions.</v>
+        <v>TMTA20AT-345 - Verify that the platform provides an option for users to change their passwords within their account settings</v>
       </c>
       <c r="C28" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D28" t="str">
-        <v>TMTA20AT-396 - Backlog - The platform doesn't utilize unique and time-bound tokens for user identification during sessions</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B29" t="str">
-        <v>TMTA20AT-332 - Verify that the platform implements session expiration and automatic logout after a period of inactivity</v>
+        <v>TMTA20AT-346 - Verify that the platform requires confirmation of the current password and enforces new password requirements during password changes</v>
       </c>
       <c r="C29" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D29" t="str">
-        <v>TMTA20AT-397 - Backlog - The platform doesn't implement session expiration and automatic logout after a period of inactivity</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B30" t="str">
-        <v/>
+        <v>TMTA20AT-347 - Verify that the platform provides confirmation upon successful password changes and optionally sends email notifications</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D30" t="str">
-        <v>TMTA20AT-397 - Backlog - The platform doesn't implement session expiration and automatic logout after a period of inactivity - step level</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B31" t="str">
-        <v>TMTA20AT-333 - Verify that the platform enforces login attempt limits to restrict excessive login attempts</v>
+        <v>TMTA20AT-348 - Verify that the platform prevents users from reusing their current password when setting a new one</v>
       </c>
       <c r="C31" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D31" t="str">
-        <v>TMTA20AT-398 - Backlog - The platform doesn't limit the number of login attempts a user can make within a specific timeframe</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>TMTA20AT-349 - Verify that the platform limits the number of password change attempts within a specific timeframe to prevent brute-force attacks</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D32" t="str">
-        <v>TMTA20AT-398 - Backlog - The platform doesn't limit the number of login attempts a user can make within a specific timeframe - step level</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="33">
@@ -855,13 +855,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B33" t="str">
-        <v>TMTA20AT-334 - Verify that the platform temporarily locks accounts after exceeding login attempt limits</v>
+        <v>TMTA20AT-350 - Verify that the platform enforces strong password requirements consistently across all access points (web browser, mobile app, etc.)</v>
       </c>
       <c r="C33" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D33" t="str">
-        <v>TMTA20AT-398 - Backlog - The platform doesn't limit the number of login attempts a user can make within a specific timeframe</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="34">
@@ -869,13 +869,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B34" t="str">
-        <v>TMTA20AT-335 - Verify that the platform implements CAPTCHA challenges or similar measures to hinder automated login attempts</v>
+        <v>TMTA20AT-351 - Verify that the platform offers login buttons for the social media platforms</v>
       </c>
       <c r="C34" t="str">
         <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D34" t="str">
-        <v>TMTA20AT-399 - Backlog - The platform doesn't use additional checks (e.g. CAPTCHA) to differentiate between legitimate users and bots</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v/>
       </c>
       <c r="D35" t="str">
-        <v>TMTA20AT-399 - Backlog - The platform doesn't use additional checks (e.g. CAPTCHA) to differentiate between legitimate users and bots - step level</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms - step level</v>
       </c>
     </row>
     <row r="36">
@@ -897,13 +897,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B36" t="str">
-        <v>TMTA20AT-336 - Verify that the platform accurately displays username, email address, and address information associated with the logged-in user's account.</v>
+        <v>TMTA20AT-352 - Verify that the login process using social media credentials is smooth and user-friendly</v>
       </c>
       <c r="C36" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D36" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="37">
@@ -911,41 +911,41 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B37" t="str">
-        <v>TMTA20AT-337 - Verify that the platform updates user profile information accurately after edits are made by the user.</v>
+        <v>TMTA20AT-353 - Verify that secure communication is being used with social media platforms, even though directly examining their internal security practices might be limited.</v>
       </c>
       <c r="C37" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D37" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B38" t="str">
-        <v>TMTA20AT-338 - Verify that the platform provides clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-354 - Verify that users can successfully register for a new account on the platform using their valid social media credentials</v>
       </c>
       <c r="C38" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D38" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B39" t="str">
-        <v/>
+        <v>TMTA20AT-355 - Verify that successful login using social media credentials grants users access to their accounts on the platform</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D39" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information - step level</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="40">
@@ -953,13 +953,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B40" t="str">
-        <v>TMTA20AT-339 - Verify that the platform allows users to edit specific profile details within their profile section</v>
+        <v>TMTA20AT-356 - Verify that the platform retrieves and maps relevant user data from social media platforms during social login or registration</v>
       </c>
       <c r="C40" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D40" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="41">
@@ -967,13 +967,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B41" t="str">
-        <v>TMTA20AT-340 - Verify that the platform successfully saves and updates user profile information after edits are made</v>
+        <v>TMTA20AT-357 - Verify that the platform stores social media access tokens securely and uses encryption to protect them</v>
       </c>
       <c r="C41" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D41" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="42">
@@ -981,69 +981,69 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B42" t="str">
-        <v>TMTA20AT-341 - Verify that the platform provides confirmation messages and validates the information entered during profile edits</v>
+        <v>TMTA20AT-358 - Verify that social media access tokens are not transmitted or stored in a way that exposes them to unauthorized parties</v>
       </c>
       <c r="C42" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D42" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B43" t="str">
-        <v>TMTA20AT-342 -  Verify that the platform displays a list of the user's past orders with accurate details</v>
+        <v>TMTA20AT-359 - Verify that the platform implements mechanisms for social media access token expiration and renewal</v>
       </c>
       <c r="C43" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D43" t="str">
-        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>TMTA20AT-360 - Verify that the platform revokes social media access tokens when users disconnect their social media accounts</v>
       </c>
       <c r="C44" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D44" t="str">
-        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders - step level</v>
+        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B45" t="str">
-        <v>TMTA20AT-343 - Verify that the platform provides access to order tracking information and shipment updates for past orders.</v>
+        <v>TMTA20AT-361 - Verify that the platform offers a 2FA option for account security and provides clear instructions for activation</v>
       </c>
       <c r="C45" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D45" t="str">
-        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B46" t="str">
-        <v>TMTA20AT-344 - Verify that the platform provides options for filtering and sorting the user's order history for better organization.</v>
+        <v/>
       </c>
       <c r="C46" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>TMTA20AT-401 - Backlog - The platform doesn't display a list of the user's past orders</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security - step level</v>
       </c>
     </row>
     <row r="47">
@@ -1051,13 +1051,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B47" t="str">
-        <v>TMTA20AT-345 - Verify that the platform provides an option for users to change their passwords within their account settings</v>
+        <v>TMTA20AT-362 - Verify that the platform allows users to choose their preferred method for receiving 2FA verification codes (e.g., SMS or email).</v>
       </c>
       <c r="C47" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D47" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="48">
@@ -1065,13 +1065,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B48" t="str">
-        <v>TMTA20AT-346 - Verify that the platform requires confirmation of the current password and enforces new password requirements during password changes</v>
+        <v>TMTA20AT-363 - Verify that the platform integrates seamlessly with the chosen communication channel (SMS or email) for sending 2FA verification codes.</v>
       </c>
       <c r="C48" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D48" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="49">
@@ -1079,13 +1079,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B49" t="str">
-        <v>TMTA20AT-347 - Verify that the platform provides confirmation upon successful password changes and optionally sends email notifications</v>
+        <v>TMTA20AT-364 - Verify that the platform provides clear and intuitive steps for users to set up and activate 2FA</v>
       </c>
       <c r="C49" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D49" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="50">
@@ -1093,13 +1093,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B50" t="str">
-        <v>TMTA20AT-348 - Verify that the platform prevents users from reusing their current password when setting a new one</v>
+        <v>TMTA20AT-365 - Verify that the platform delivers verification codes promptly through the user's chosen communication channel (SMS or email) during 2FA</v>
       </c>
       <c r="C50" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D50" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="51">
@@ -1107,13 +1107,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B51" t="str">
-        <v>TMTA20AT-349 - Verify that the platform limits the number of password change attempts within a specific timeframe to prevent brute-force attacks</v>
+        <v>TMTA20AT-366 - Verify that the platform successfully validates and links the chosen 2FA method to the user's account</v>
       </c>
       <c r="C51" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D51" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="52">
@@ -1121,181 +1121,181 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B52" t="str">
-        <v>TMTA20AT-350 - Verify that the platform enforces strong password requirements consistently across all access points (web browser, mobile app, etc.)</v>
+        <v>TMTA20AT-367 - Verify that 2FA is mandatory for specific sensitive actions within the platform, such as changing passwords</v>
       </c>
       <c r="C52" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D52" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B53" t="str">
-        <v>TMTA20AT-351 - Verify that the platform offers login buttons for the social media platforms</v>
+        <v>TMTA20AT-368 - Verify that enabling 2FA as an optional security measure prompts for verification codes during login attempts</v>
       </c>
       <c r="C53" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D53" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B54" t="str">
-        <v/>
+        <v>TMTA20AT-369 - Verify that 2FA prompts and verification processes are integrated seamlessly within the platform's user flow, avoiding disruptions.</v>
       </c>
       <c r="C54" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D54" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms - step level</v>
+        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 3 defect</v>
       </c>
       <c r="B55" t="str">
-        <v>TMTA20AT-352 - Verify that the login process using social media credentials is smooth and user-friendly</v>
+        <v>TMTA20AT-370 - Verify that the platform successfully establishes a connection and integrates with the chosen email marketing platform</v>
       </c>
       <c r="C55" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D55" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B56" t="str">
-        <v>TMTA20AT-353 - Verify that secure communication is being used with social media platforms, even though directly examining their internal security practices might be limited.</v>
+        <v/>
       </c>
       <c r="C56" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D56" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B57" t="str">
-        <v>TMTA20AT-354 - Verify that users can successfully register for a new account on the platform using their valid social media credentials</v>
+        <v/>
       </c>
       <c r="C57" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D57" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform - step level</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B58" t="str">
-        <v>TMTA20AT-355 - Verify that successful login using social media credentials grants users access to their accounts on the platform</v>
+        <v>TMTA20AT-371 - Verify that user information and data are transferred securely between the platform and the email marketing platform.</v>
       </c>
       <c r="C58" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D58" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B59" t="str">
-        <v>TMTA20AT-356 - Verify that the platform retrieves and maps relevant user data from social media platforms during social login or registration</v>
+        <v/>
       </c>
       <c r="C59" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D59" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B60" t="str">
-        <v>TMTA20AT-357 - Verify that the platform stores social media access tokens securely and uses encryption to protect them</v>
+        <v>TMTA20AT-372 - Verify that the platform's integration with the chosen email marketing platform is compatible with existing tools and workflows within the email marketing platform.</v>
       </c>
       <c r="C60" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D60" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B61" t="str">
-        <v>TMTA20AT-358 - Verify that social media access tokens are not transmitted or stored in a way that exposes them to unauthorized parties</v>
+        <v/>
       </c>
       <c r="C61" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D61" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 4 defect</v>
       </c>
       <c r="B62" t="str">
-        <v>TMTA20AT-359 - Verify that the platform implements mechanisms for social media access token expiration and renewal</v>
+        <v>TMTA20AT-373 - Verify that the platform automatically triggers emails based on predefined user actions or purchase history</v>
       </c>
       <c r="C62" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D62" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B63" t="str">
-        <v>TMTA20AT-360 - Verify that the platform revokes social media access tokens when users disconnect their social media accounts</v>
+        <v/>
       </c>
       <c r="C63" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D63" t="str">
-        <v>TMTA20AT-402 - Backlog - The platform doesn't offer login buttons for the social media platforms</v>
+        <v>TMTA20AT-405 - Backlog - The platform doesn't automatically trigger emails based on predefined user actions or purchase history</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v/>
       </c>
       <c r="B64" t="str">
-        <v>TMTA20AT-361 - Verify that the platform offers a 2FA option for account security and provides clear instructions for activation</v>
+        <v/>
       </c>
       <c r="C64" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v/>
       </c>
       <c r="D64" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="65">
@@ -1309,35 +1309,35 @@
         <v/>
       </c>
       <c r="D65" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security - step level</v>
+        <v>TMTA20AT-405 - Backlog - The platform doesn't automatically trigger emails based on predefined user actions or purchase history - step level</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B66" t="str">
-        <v>TMTA20AT-362 - Verify that the platform allows users to choose their preferred method for receiving 2FA verification codes (e.g., SMS or email).</v>
+        <v>TMTA20AT-374 - Verify that automated emails are personalized with relevant user information and targeted offers.</v>
       </c>
       <c r="C66" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D66" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-405 - Backlog - The platform doesn't automatically trigger emails based on predefined user actions or purchase history</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B67" t="str">
-        <v>TMTA20AT-363 - Verify that the platform integrates seamlessly with the chosen communication channel (SMS or email) for sending 2FA verification codes.</v>
+        <v/>
       </c>
       <c r="C67" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D67" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="68">
@@ -1345,108 +1345,108 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B68" t="str">
-        <v>TMTA20AT-364 - Verify that the platform provides clear and intuitive steps for users to set up and activate 2FA</v>
+        <v>TMTA20AT-375 - Verify that users have options to manage their email communication preferences and opt-out of unwanted emails.</v>
       </c>
       <c r="C68" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D68" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B69" t="str">
-        <v>TMTA20AT-365 - Verify that the platform delivers verification codes promptly through the user's chosen communication channel (SMS or email) during 2FA</v>
+        <v>TMTA20AT-376 - Verify that the platform tracks key metrics like email opens, clicks on links within emails, and conversions resulting from email campaigns</v>
       </c>
       <c r="C69" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D69" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B70" t="str">
-        <v>TMTA20AT-366 - Verify that the platform successfully validates and links the chosen 2FA method to the user's account</v>
+        <v/>
       </c>
       <c r="C70" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D70" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B71" t="str">
-        <v>TMTA20AT-367 - Verify that 2FA is mandatory for specific sensitive actions within the platform, such as changing passwords</v>
+        <v>TMTA20AT-377 - Verify that the platform provides reporting and analytics functionalities that allow users to evaluate campaign performance.</v>
       </c>
       <c r="C71" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D71" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B72" t="str">
-        <v>TMTA20AT-368 - Verify that enabling 2FA as an optional security measure prompts for verification codes during login attempts</v>
+        <v/>
       </c>
       <c r="C72" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D72" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B73" t="str">
-        <v>TMTA20AT-369 - Verify that 2FA prompts and verification processes are integrated seamlessly within the platform's user flow, avoiding disruptions.</v>
+        <v>TMTA20AT-378 - Verify that the platform operates in accordance with data privacy regulations and obtains user consent for email tracking practices.</v>
       </c>
       <c r="C73" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D73" t="str">
-        <v>TMTA20AT-403 - Backlog - The platform lacks a 2FA option for account security</v>
+        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 3 defect</v>
+        <v/>
       </c>
       <c r="B74" t="str">
-        <v>TMTA20AT-370 - Verify that the platform successfully establishes a connection and integrates with the chosen email marketing platform</v>
+        <v/>
       </c>
       <c r="C74" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D74" t="str">
-        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B75" t="str">
-        <v/>
+        <v>TMTA20AT-379 - Verify that all form fields within registration, login, and account management interfaces have clear and concise labels and instructions.</v>
       </c>
       <c r="C75" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D75" t="str">
         <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
@@ -1454,16 +1454,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
       </c>
       <c r="B76" t="str">
-        <v/>
+        <v>TMTA20AT-380 - Verify that the layout of registration, login, and account management interfaces is user-friendly and navigation is intuitive</v>
       </c>
       <c r="C76" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D76" t="str">
-        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform - step level</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="77">
@@ -1471,13 +1471,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B77" t="str">
-        <v>TMTA20AT-371 - Verify that user information and data are transferred securely between the platform and the email marketing platform.</v>
+        <v>TMTA20AT-381 - Verify that the registration, login, and account management interfaces comply with accessibility standards and function properly across different devices (desktop, mobile)</v>
       </c>
       <c r="C77" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D77" t="str">
-        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
+        <v>TMTA20AT-406 - Backlog - The platform doesn't adhere to accessibility best practices</v>
       </c>
     </row>
     <row r="78">
@@ -1491,63 +1491,63 @@
         <v/>
       </c>
       <c r="D78" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-406 - Backlog - The platform doesn't adhere to accessibility best practices - step level</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B79" t="str">
-        <v>TMTA20AT-372 - Verify that the platform's integration with the chosen email marketing platform is compatible with existing tools and workflows within the email marketing platform.</v>
+        <v>TMTA20AT-382 - Verify that the platform maintains a consistent visual design, logo, and color scheme throughout the registration, login, and account management interfaces.</v>
       </c>
       <c r="C79" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D79" t="str">
-        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
+        <v>None</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B80" t="str">
-        <v/>
+        <v>TMTA20AT-383 - Verify that the platform incorporates recognizable branding elements and maintains an intuitive user flow throughout registration, login, and account management.</v>
       </c>
       <c r="C80" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D80" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>None</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 4 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B81" t="str">
-        <v>TMTA20AT-373 - Verify that the platform automatically triggers emails based on predefined user actions or purchase history</v>
+        <v>TMTA20AT-384 - Verify that the platform's interfaces are responsive and maintain a consistent layout across different screen sizes (desktop, mobile).</v>
       </c>
       <c r="C81" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D81" t="str">
-        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
+        <v>None</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 4 defect</v>
       </c>
       <c r="B82" t="str">
-        <v/>
+        <v>TMTA20AT-385 - Verify that the platform displays informative error messages when users provide invalid inputs or attempt incorrect actions</v>
       </c>
       <c r="C82" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D82" t="str">
-        <v>TMTA20AT-405 - Backlog - The platform doesn't automatically trigger emails based on predefined user actions or purchase history</v>
+        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity</v>
       </c>
     </row>
     <row r="83">
@@ -1561,7 +1561,7 @@
         <v/>
       </c>
       <c r="D83" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-388 - Backlog - The password field doesn't have additional info about password requirements</v>
       </c>
     </row>
     <row r="84">
@@ -1575,63 +1575,63 @@
         <v/>
       </c>
       <c r="D84" t="str">
-        <v>TMTA20AT-405 - Backlog - The platform doesn't automatically trigger emails based on predefined user actions or purchase history - step level</v>
+        <v>TMTA20AT-389 - Backlog - Mobile Number field doesn't have additional format info</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v/>
       </c>
       <c r="B85" t="str">
-        <v>TMTA20AT-374 - Verify that automated emails are personalized with relevant user information and targeted offers.</v>
+        <v/>
       </c>
       <c r="C85" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D85" t="str">
-        <v>TMTA20AT-405 - Backlog - The platform doesn't automatically trigger emails based on predefined user actions or purchase history</v>
+        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 4 defect</v>
       </c>
       <c r="B86" t="str">
-        <v/>
+        <v>TMTA20AT-386 - Verify that user receives proper error message when trying to login with unregistered email</v>
       </c>
       <c r="C86" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D86" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B87" t="str">
-        <v>TMTA20AT-375 - Verify that users have options to manage their email communication preferences and opt-out of unwanted emails.</v>
+        <v/>
       </c>
       <c r="C87" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D87" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-388 - Backlog - The password field doesn't have additional info about password requirements</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v/>
       </c>
       <c r="B88" t="str">
-        <v>TMTA20AT-376 - Verify that the platform tracks key metrics like email opens, clicks on links within emails, and conversions resulting from email campaigns</v>
+        <v/>
       </c>
       <c r="C88" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D88" t="str">
-        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
+        <v>TMTA20AT-389 - Backlog - Mobile Number field doesn't have additional format info</v>
       </c>
     </row>
     <row r="89">
@@ -1653,13 +1653,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B90" t="str">
-        <v>TMTA20AT-377 - Verify that the platform provides reporting and analytics functionalities that allow users to evaluate campaign performance.</v>
+        <v>TMTA20AT-387 - Verify that error messages are localized for different languages and consider accessibility needs (e.g., color contrast, screen reader compatibility)</v>
       </c>
       <c r="C90" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D90" t="str">
-        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
+        <v>TMTA20AT-407 - Backlog - The platform does not allow users to change the language settings to a language other than the default.</v>
       </c>
     </row>
     <row r="91">
@@ -1673,161 +1673,161 @@
         <v/>
       </c>
       <c r="D91" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-407 - Backlog - The platform does not allow users to change the language settings to a language other than the default. - step level</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B92" t="str">
-        <v>TMTA20AT-378 - Verify that the platform operates in accordance with data privacy regulations and obtains user consent for email tracking practices.</v>
+        <v>TMTA20AT-313 - Verify that the signup form includes all necessary fields for user account creation</v>
       </c>
       <c r="C92" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D92" t="str">
-        <v>TMTA20AT-404 - Backlog - The platform lacks functionality for integrating with the chosen email marketing platform</v>
+        <v>None</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B93" t="str">
-        <v/>
+        <v>TMTA20AT-314 - Verify that the signup forms have clear labels for each field and easily accessible instructions if needed.</v>
       </c>
       <c r="C93" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D93" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-388 - Backlog - The password field doesn't have additional info about password requirements</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v/>
       </c>
       <c r="B94" t="str">
-        <v>TMTA20AT-379 - Verify that all form fields within registration, login, and account management interfaces have clear and concise labels and instructions.</v>
+        <v/>
       </c>
       <c r="C94" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D94" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-389 - Backlog - Mobile Number field doesn't have additional format info</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 1 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B95" t="str">
-        <v>TMTA20AT-380 - Verify that the layout of registration, login, and account management interfaces is user-friendly and navigation is intuitive</v>
+        <v>TMTA20AT-315 - Verify that the signup forms offer the option for users to see or hide their entered password while typing</v>
       </c>
       <c r="C95" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D95" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-390 - Backlog - Users cannot choose to view their password for confirmation purposes</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
+        <v/>
       </c>
       <c r="B96" t="str">
-        <v>TMTA20AT-381 - Verify that the registration, login, and account management interfaces comply with accessibility standards and function properly across different devices (desktop, mobile)</v>
+        <v/>
       </c>
       <c r="C96" t="str">
-        <v>Register for an account, log in and manage account features  - FAIL</v>
+        <v/>
       </c>
       <c r="D96" t="str">
-        <v>TMTA20AT-406 - Backlog - The platform doesn't adhere to accessibility best practices</v>
+        <v>TMTA20AT-390 - Backlog - Users cannot choose to view their password for confirmation purposes - step level</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B97" t="str">
-        <v/>
+        <v>TMTA20AT-316 - Verify that the platform's email validation accepts email addresses in standard formats</v>
       </c>
       <c r="C97" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D97" t="str">
-        <v>TMTA20AT-406 - Backlog - The platform doesn't adhere to accessibility best practices - step level</v>
+        <v>None</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B98" t="str">
-        <v>TMTA20AT-382 - Verify that the platform maintains a consistent visual design, logo, and color scheme throughout the registration, login, and account management interfaces.</v>
+        <v>TMTA20AT-317 - Verify that the platform's email validation rejects email addresses with invalid formats.</v>
       </c>
       <c r="C98" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D98" t="str">
-        <v>None</v>
+        <v>TMTA20AT-391 - Backlog - The platform accepts email addresses with obvious formatting errors or invalid symbols.</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v/>
       </c>
       <c r="B99" t="str">
-        <v>TMTA20AT-383 - Verify that the platform incorporates recognizable branding elements and maintains an intuitive user flow throughout registration, login, and account management.</v>
+        <v/>
       </c>
       <c r="C99" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v/>
       </c>
       <c r="D99" t="str">
-        <v>None</v>
+        <v>TMTA20AT-391 - Backlog - The platform accepts email addresses with obvious formatting errors or invalid symbols. - step level</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B100" t="str">
-        <v>TMTA20AT-384 - Verify that the platform's interfaces are responsive and maintain a consistent layout across different screen sizes (desktop, mobile).</v>
+        <v>TMTA20AT-318 - Verify that the platform enforces password complexity requirements to promote strong passwords.</v>
       </c>
       <c r="C100" t="str">
-        <v>Register for an account, log in and manage account features  - PASS</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D100" t="str">
-        <v>None</v>
+        <v>TMTA20AT-392 - Backlog - The platform allows users to create passwords that are too weak (e.g., short, lacking character variation).</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 4 defect</v>
+        <v/>
       </c>
       <c r="B101" t="str">
-        <v>TMTA20AT-385 - Verify that the platform displays informative error messages when users provide invalid inputs or attempt incorrect actions</v>
+        <v/>
       </c>
       <c r="C101" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v/>
       </c>
       <c r="D101" t="str">
-        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity</v>
+        <v>TMTA20AT-426 - Backlog - The platform doesn't prevent user to use weak passwords. - step level</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B102" t="str">
-        <v/>
+        <v>TMTA20AT-319 - Verify that the platform provides clear error messages guiding users to create stronger passwords</v>
       </c>
       <c r="C102" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D102" t="str">
-        <v>TMTA20AT-388 - Backlog - Password field doesn't have additional info</v>
+        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity</v>
       </c>
     </row>
     <row r="103">
@@ -1841,35 +1841,35 @@
         <v/>
       </c>
       <c r="D103" t="str">
-        <v>TMTA20AT-389 - Backlog - Mobile Number field doesn't have additional format info</v>
+        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity - step level</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it.</v>
       </c>
       <c r="B104" t="str">
-        <v/>
+        <v>TMTA20AT-321 - Verify that the platform utilizes secure transport protocols (HTTPS) during user registration to protect password transmission.</v>
       </c>
       <c r="C104" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - PASS</v>
       </c>
       <c r="D104" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>None</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 4 defect</v>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B105" t="str">
-        <v>TMTA20AT-386 - Verify that error messages not only identify the problem but also provide clear instructions or suggestions for users to resolve it</v>
+        <v>TMTA20AT-322 - Verify that the platform sends a confirmation email to the email address provided during registration</v>
       </c>
       <c r="C105" t="str">
-        <v>Register for an account, log in and manage account features  - BLOCKED</v>
+        <v>Register for an account, log in and manage account features  - FAIL</v>
       </c>
       <c r="D105" t="str">
-        <v>TMTA20AT-393 - Backlog - The platform doesn't display an error message regarding password complexity</v>
+        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
       </c>
     </row>
     <row r="106">
@@ -1883,21 +1883,21 @@
         <v/>
       </c>
       <c r="D106" t="str">
-        <v>TMTA20AT-388 - Backlog - Password field doesn't have additional info</v>
+        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration. - step level</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v/>
+        <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B107" t="str">
-        <v/>
+        <v>TMTA20AT-323 - Verify that the confirmation email content includes relevant information and an activation link</v>
       </c>
       <c r="C107" t="str">
-        <v/>
+        <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D107" t="str">
-        <v>TMTA20AT-389 - Backlog - Mobile Number field doesn't have additional format info</v>
+        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
       </c>
     </row>
     <row r="108">
@@ -1911,7 +1911,7 @@
         <v/>
       </c>
       <c r="D108" t="str">
-        <v>TMTA20AT-400 - Backlog - The platform doesn't provide clear and accessible options for users to access and edit their profile information</v>
+        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration. - step level</v>
       </c>
     </row>
     <row r="109">
@@ -1919,13 +1919,13 @@
         <v>TMTA20AT-87 - As a new user of the "Automation Exercise" e-commerce website, I want to be able to register for an account, log in securely and seamlessly, and manage it. - 2 defect</v>
       </c>
       <c r="B109" t="str">
-        <v>TMTA20AT-387 - Verify that error messages are localized for different languages and consider accessibility needs (e.g., color contrast, screen reader compatibility)</v>
+        <v>TMTA20AT-324 - Verify that confirmation emails are delivered successfully to email providers and platforms, other than Gmail</v>
       </c>
       <c r="C109" t="str">
         <v>Register for an account, log in and manage account features  - BLOCKED</v>
       </c>
       <c r="D109" t="str">
-        <v>TMTA20AT-407 - Backlog - The platform does not allow users to change the language settings to a language other than the default.</v>
+        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration.</v>
       </c>
     </row>
     <row r="110">
@@ -1939,7 +1939,7 @@
         <v/>
       </c>
       <c r="D110" t="str">
-        <v>TMTA20AT-407 - Backlog - The platform does not allow users to change the language settings to a language other than the default. - step level</v>
+        <v>TMTA20AT-394 - Backlog - No confirmation email is sent after successful registration. - step level</v>
       </c>
     </row>
     <row r="111">
